--- a/Training/FA Schedule/FA Schedule.xlsx
+++ b/Training/FA Schedule/FA Schedule.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\repo\FMSResources\Training\Topics\FA Schedule\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\repo\FMSResources\Training\FA Schedule\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E3B96192-C073-4E3D-B4FE-72E9D5F6589B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{20774AD4-FBFA-42FA-B0E1-2C003AF777E3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -51,7 +51,7 @@
     <t>test</t>
   </si>
   <si>
-    <t>Frame Sequeence</t>
+    <t>Frame Sequence</t>
   </si>
 </sst>
 </file>
@@ -380,9 +380,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
